--- a/wolf/Excel/Ear_耳朵.xlsx
+++ b/wolf/Excel/Ear_耳朵.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
   <si>
     <t>Int</t>
   </si>
@@ -79,6 +79,12 @@
     <t>星星</t>
   </si>
   <si>
+    <t>眩晕Buff</t>
+  </si>
+  <si>
+    <t>0|0|22|0|0|0|0.4|0.4|0.4</t>
+  </si>
+  <si>
     <t>狗头</t>
   </si>
   <si>
@@ -91,7 +97,67 @@
     <t>问号</t>
   </si>
   <si>
-    <t>0|0|50|0|0|0|1|1|1</t>
+    <t>0|0|38|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>乌云</t>
+  </si>
+  <si>
+    <t>0|0|47|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|14|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>0|0|23|0|0|0|0.15|0.15|0.15</t>
+  </si>
+  <si>
+    <t>-15|0|30|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>0|0|8|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>恶心</t>
+  </si>
+  <si>
+    <t>0|0|36|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>泡泡</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>0|0|20|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>花瓣环绕</t>
+  </si>
+  <si>
+    <t>蝴蝶泡泡</t>
+  </si>
+  <si>
+    <t>五角星泡泡</t>
+  </si>
+  <si>
+    <t>打瞌睡</t>
+  </si>
+  <si>
+    <t>0|10|5|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>爱心</t>
+  </si>
+  <si>
+    <t>0|0|32|0|0|0|0.5|0.5|0.5</t>
   </si>
   <si>
     <t>梦幻泡泡蝴蝶结</t>
@@ -166,9 +232,6 @@
     <t>自动寻路图标</t>
   </si>
   <si>
-    <t>0|0|20|0|0|0|1|1|1</t>
-  </si>
-  <si>
     <t>子弹</t>
   </si>
   <si>
@@ -179,6 +242,189 @@
   </si>
   <si>
     <t>恭喜发财</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>0|0|-5|0|0|0|0.6|0.6|0.6</t>
+  </si>
+  <si>
+    <t>头套</t>
+  </si>
+  <si>
+    <t>0|0|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|0|15|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-1.3|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|4|12|-5|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|8|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|7|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|-2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|4|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|16|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|15|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>2|-4|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|13|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|2|13|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|10|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>0|-3|8|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|8|0|0|0|1.2|1.2|1.2</t>
+  </si>
+  <si>
+    <t>0|-1|3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-5|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|14|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>-3|-5|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|-7|0|0|0|1.2|1.2|1.2</t>
+  </si>
+  <si>
+    <t>0|-2|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>3|0|18|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|-9|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|10|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-4|6|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-2.5|5|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-3|6|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|-2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1.5|-3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|-3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|3|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-2.5|2.5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-6|-6|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1.33|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|12|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|0|22|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-4.5|15|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-5|16|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|2|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|17|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|-11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|9|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|11|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -191,7 +437,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -214,6 +460,23 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -675,142 +938,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -823,6 +1086,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1357,14 +1644,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U203"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
   <cols>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1680,15 +1968,15 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" ht="17.25" spans="1:21">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
-        <v>462790</v>
+      <c r="C11" s="5">
+        <v>142935</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>17</v>
@@ -1721,10 +2009,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>462791</v>
+        <v>462790</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1751,13 +2039,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>462791</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>441349</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1784,13 +2072,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>13728</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>441349</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1820,10 +2108,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>452232</v>
+        <v>13728</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1849,16 +2137,16 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1">
-        <v>452233</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7">
+        <v>169404</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
@@ -1886,12 +2174,12 @@
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>452234</v>
+        <v>200911</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="1"/>
@@ -1916,15 +2204,15 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>452235</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
+        <v>88831</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7">
         <v>0</v>
       </c>
       <c r="F18" s="1"/>
@@ -1949,15 +2237,15 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>471540</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
+        <v>88818</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
@@ -1982,15 +2270,15 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>471541</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
+        <v>88825</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7">
         <v>0</v>
       </c>
       <c r="F20" s="1"/>
@@ -2015,15 +2303,15 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>471542</v>
+        <v>287819</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7">
         <v>0</v>
       </c>
       <c r="F21" s="1"/>
@@ -2048,15 +2336,15 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
-        <v>471543</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1">
+        <v>26155</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22" s="1"/>
@@ -2081,12 +2369,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
-        <v>502350</v>
-      </c>
-      <c r="D23" s="1" t="s">
+        <v>451246</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1">
@@ -2114,13 +2402,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
-        <v>502351</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>452716</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2147,10 +2435,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
-        <v>502352</v>
+        <v>340179</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>10</v>
@@ -2179,14 +2467,12 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="1">
-        <v>266596</v>
+        <v>340181</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2213,13 +2499,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
-        <v>266597</v>
+        <v>295800</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2246,13 +2532,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>266598</v>
+        <v>235888</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2279,13 +2565,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
-        <v>266600</v>
+        <v>295801</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2312,13 +2598,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
-        <v>266601</v>
+        <v>26158</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2345,13 +2631,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>266602</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>184435</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2378,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
-        <v>266610</v>
+        <v>452232</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2411,13 +2697,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
-        <v>467603</v>
+        <v>452233</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2444,13 +2730,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>266332</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>452234</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2477,13 +2763,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
-        <v>457013</v>
+        <v>452235</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2510,13 +2796,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
-        <v>209534</v>
+        <v>471540</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2543,13 +2829,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1">
-        <v>112801</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>471541</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2576,13 +2862,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
-        <v>173867</v>
+        <v>471542</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2608,14 +2894,14 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C39" s="1">
-        <v>26146</v>
+        <v>471543</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2641,11 +2927,11 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>42</v>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C40" s="1">
-        <v>26151</v>
+        <v>502350</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>10</v>
@@ -2674,14 +2960,16 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C41" s="1">
-        <v>26155</v>
+        <v>502351</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" s="7">
         <v>0</v>
       </c>
       <c r="F41" s="1"/>
@@ -2705,16 +2993,16 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="1">
-        <v>160743</v>
+        <v>502352</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="1">
+        <v>10</v>
+      </c>
+      <c r="E42" s="7">
         <v>0</v>
       </c>
       <c r="F42" s="1"/>
@@ -2738,16 +3026,16 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C43" s="1">
-        <v>162012</v>
+        <v>266596</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="1">
+        <v>49</v>
+      </c>
+      <c r="E43" s="7">
         <v>0</v>
       </c>
       <c r="F43" s="1"/>
@@ -2771,16 +3059,16 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>46</v>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>168959</v>
+        <v>266597</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="1">
+        <v>49</v>
+      </c>
+      <c r="E44" s="7">
         <v>0</v>
       </c>
       <c r="F44" s="1"/>
@@ -2804,16 +3092,16 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>47</v>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>200925</v>
+        <v>266598</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="1">
+        <v>49</v>
+      </c>
+      <c r="E45" s="7">
         <v>0</v>
       </c>
       <c r="F45" s="1"/>
@@ -2837,16 +3125,16 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="1">
-        <v>403000</v>
+        <v>266600</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1">
+        <v>49</v>
+      </c>
+      <c r="E46" s="7">
         <v>0</v>
       </c>
       <c r="F46" s="1"/>
@@ -2870,16 +3158,16 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>403004</v>
+        <v>266601</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1">
+        <v>49</v>
+      </c>
+      <c r="E47" s="7">
         <v>0</v>
       </c>
       <c r="F47" s="1"/>
@@ -2903,14 +3191,14 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>403012</v>
+        <v>266602</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -2936,14 +3224,14 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>403014</v>
+        <v>266610</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2969,14 +3257,14 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>48</v>
+      <c r="B50" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C50" s="1">
-        <v>403015</v>
+        <v>467603</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -3002,14 +3290,14 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>49</v>
+      <c r="B51" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C51" s="1">
-        <v>506842</v>
+        <v>266332</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3032,11 +3320,21 @@
       <c r="U51" s="1"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1">
+        <v>457013</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3055,11 +3353,21 @@
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="1">
+        <v>209534</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3078,11 +3386,21 @@
       <c r="U53" s="1"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1">
+        <v>112801</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3101,11 +3419,21 @@
       <c r="U54" s="1"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>173867</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -3124,11 +3452,21 @@
       <c r="U55" s="1"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1">
+        <v>26146</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3147,11 +3485,21 @@
       <c r="U56" s="1"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1">
+        <v>26151</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -3170,11 +3518,19 @@
       <c r="U57" s="1"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="1">
+        <v>26155</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -3193,11 +3549,21 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="1">
+        <v>160743</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3216,11 +3582,21 @@
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1">
+        <v>162012</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3239,11 +3615,21 @@
       <c r="U60" s="1"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="1">
+        <v>168959</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3262,11 +3648,21 @@
       <c r="U61" s="1"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="1">
+        <v>200925</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -3285,11 +3681,21 @@
       <c r="U62" s="1"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>403000</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3308,11 +3714,21 @@
       <c r="U63" s="1"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="1">
+        <v>403004</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -3331,11 +3747,21 @@
       <c r="U64" s="1"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1">
+        <v>403012</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -3354,11 +3780,21 @@
       <c r="U65" s="1"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="1">
+        <v>403014</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -3377,11 +3813,21 @@
       <c r="U66" s="1"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="1">
+        <v>403015</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3400,11 +3846,21 @@
       <c r="U67" s="1"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1">
+        <v>506842</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3423,11 +3879,21 @@
       <c r="U68" s="1"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="1">
+        <v>442771</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3446,11 +3912,21 @@
       <c r="U69" s="1"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>234390</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3469,11 +3945,19 @@
       <c r="U70" s="1"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="C71" s="1">
+        <v>292089</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -3491,12 +3975,20 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="1"/>
+    <row r="72" ht="17.25" spans="1:21">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="C72" s="12">
+        <v>72681</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -3514,12 +4006,20 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="1"/>
+    <row r="73" ht="17.25" spans="1:21">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="C73" s="12">
+        <v>72689</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -3537,12 +4037,20 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="1"/>
+    <row r="74" ht="17.25" spans="1:21">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="C74" s="12">
+        <v>44268</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3560,12 +4068,20 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="1"/>
+    <row r="75" ht="17.25" spans="1:21">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="C75" s="12">
+        <v>72675</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -3583,12 +4099,20 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="1"/>
+    <row r="76" ht="17.25" spans="1:21">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="C76" s="12">
+        <v>68413</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -3606,12 +4130,20 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21">
-      <c r="A77" s="1"/>
+    <row r="77" ht="17.25" spans="1:21">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="C77" s="12">
+        <v>266331</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -3629,12 +4161,20 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21">
-      <c r="A78" s="1"/>
+    <row r="78" ht="17.25" spans="1:21">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="C78" s="12">
+        <v>386337</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -3652,12 +4192,20 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="1"/>
+    <row r="79" ht="17.25" spans="1:21">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="C79" s="12">
+        <v>173237</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -3675,12 +4223,20 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21">
-      <c r="A80" s="1"/>
+    <row r="80" ht="17.25" spans="1:21">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="C80" s="12">
+        <v>173239</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -3698,12 +4254,20 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21">
-      <c r="A81" s="1"/>
+    <row r="81" ht="17.25" spans="1:21">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="C81" s="12">
+        <v>173240</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -3721,12 +4285,20 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21">
-      <c r="A82" s="1"/>
+    <row r="82" ht="17.25" spans="1:21">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="C82" s="12">
+        <v>173242</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -3744,12 +4316,20 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="1"/>
+    <row r="83" ht="17.25" spans="1:21">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="C83" s="12">
+        <v>173241</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -3767,12 +4347,20 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21">
-      <c r="A84" s="1"/>
+    <row r="84" ht="17.25" spans="1:21">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="C84" s="12">
+        <v>173243</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -3790,12 +4378,20 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="1:21">
-      <c r="A85" s="1"/>
+    <row r="85" ht="17.25" spans="1:21">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="C85" s="12">
+        <v>173244</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3813,12 +4409,20 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="1:21">
-      <c r="A86" s="1"/>
+    <row r="86" ht="17.25" spans="1:21">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="C86" s="12">
+        <v>173245</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3836,12 +4440,20 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="1:21">
-      <c r="A87" s="1"/>
+    <row r="87" ht="17.25" spans="1:21">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="C87" s="12">
+        <v>173501</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3859,12 +4471,20 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="1:21">
-      <c r="A88" s="1"/>
+    <row r="88" ht="17.25" spans="1:21">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="C88" s="12">
+        <v>173502</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3882,12 +4502,20 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="1:21">
-      <c r="A89" s="1"/>
+    <row r="89" ht="17.25" spans="1:21">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="C89" s="12">
+        <v>173499</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -3905,12 +4533,20 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:21">
-      <c r="A90" s="1"/>
+    <row r="90" ht="17.25" spans="1:21">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="C90" s="12">
+        <v>173503</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -3928,12 +4564,20 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="1:21">
-      <c r="A91" s="1"/>
+    <row r="91" ht="17.25" spans="1:21">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="C91" s="12">
+        <v>173504</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -3951,12 +4595,20 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="1:21">
-      <c r="A92" s="1"/>
+    <row r="92" ht="17.25" spans="1:21">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="C92" s="12">
+        <v>173505</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -3974,12 +4626,20 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="1:21">
-      <c r="A93" s="1"/>
+    <row r="93" ht="17.25" spans="1:21">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="C93" s="12">
+        <v>173506</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0</v>
+      </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3997,12 +4657,20 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="1:21">
-      <c r="A94" s="1"/>
+    <row r="94" ht="17.25" spans="1:21">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="C94" s="12">
+        <v>173858</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0</v>
+      </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -4020,12 +4688,20 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="1:21">
-      <c r="A95" s="1"/>
+    <row r="95" ht="17.25" spans="1:21">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="C95" s="12">
+        <v>173859</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -4043,12 +4719,20 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="1:21">
-      <c r="A96" s="1"/>
+    <row r="96" ht="17.25" spans="1:21">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="C96" s="12">
+        <v>173860</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0</v>
+      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -4066,12 +4750,20 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="1:21">
-      <c r="A97" s="1"/>
+    <row r="97" ht="17.25" spans="1:21">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="C97" s="12">
+        <v>173861</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -4089,12 +4781,20 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="1:21">
-      <c r="A98" s="1"/>
+    <row r="98" ht="17.25" spans="1:21">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="C98" s="12">
+        <v>173862</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -4112,12 +4812,20 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="1:21">
-      <c r="A99" s="1"/>
+    <row r="99" ht="17.25" spans="1:21">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="C99" s="12">
+        <v>173863</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -4135,12 +4843,20 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="1:21">
-      <c r="A100" s="1"/>
+    <row r="100" ht="17.25" spans="1:21">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="C100" s="12">
+        <v>173864</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -4158,12 +4874,20 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:21">
-      <c r="A101" s="1"/>
+    <row r="101" ht="17.25" spans="1:21">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="C101" s="12">
+        <v>173865</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -4181,12 +4905,20 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="1:21">
-      <c r="A102" s="1"/>
+    <row r="102" ht="17.25" spans="1:21">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="C102" s="12">
+        <v>173866</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -4204,12 +4936,20 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="1:21">
-      <c r="A103" s="1"/>
+    <row r="103" ht="17.25" spans="1:21">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="C103" s="12">
+        <v>390761</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4227,12 +4967,20 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" spans="1:21">
-      <c r="A104" s="1"/>
+    <row r="104" ht="17.25" spans="1:21">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="C104" s="12">
+        <v>314053</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4250,12 +4998,20 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" spans="1:21">
-      <c r="A105" s="1"/>
+    <row r="105" ht="17.25" spans="1:21">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="C105" s="12">
+        <v>68397</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -4273,12 +5029,20 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" spans="1:21">
-      <c r="A106" s="1"/>
+    <row r="106" ht="17.25" spans="1:21">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="C106" s="12">
+        <v>504881</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -4296,12 +5060,20 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" spans="1:21">
-      <c r="A107" s="1"/>
+    <row r="107" ht="17.25" spans="1:21">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="C107" s="12">
+        <v>68430</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -4319,12 +5091,20 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" spans="1:21">
-      <c r="A108" s="1"/>
+    <row r="108" ht="17.25" spans="1:21">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="C108" s="12">
+        <v>68462</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -4342,12 +5122,20 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" spans="1:21">
-      <c r="A109" s="1"/>
+    <row r="109" ht="17.25" spans="1:21">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="C109" s="12">
+        <v>68404</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4365,12 +5153,20 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" spans="1:21">
-      <c r="A110" s="1"/>
+    <row r="110" ht="17.25" spans="1:21">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="C110" s="12">
+        <v>68406</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -4388,12 +5184,20 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" spans="1:21">
-      <c r="A111" s="1"/>
+    <row r="111" ht="17.25" spans="1:21">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="C111" s="12">
+        <v>68410</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -4411,12 +5215,20 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" spans="1:21">
-      <c r="A112" s="1"/>
+    <row r="112" ht="17.25" spans="1:21">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="C112" s="12">
+        <v>68422</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -4434,12 +5246,20 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" spans="1:21">
-      <c r="A113" s="1"/>
+    <row r="113" ht="17.25" spans="1:21">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="C113" s="12">
+        <v>68424</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -4457,12 +5277,20 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" spans="1:21">
-      <c r="A114" s="1"/>
+    <row r="114" ht="17.25" spans="1:21">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="C114" s="12">
+        <v>68427</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -4480,12 +5308,20 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" spans="1:21">
-      <c r="A115" s="1"/>
+    <row r="115" ht="17.25" spans="1:21">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="C115" s="12">
+        <v>68432</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -4503,12 +5339,20 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" spans="1:21">
-      <c r="A116" s="1"/>
+    <row r="116" ht="17.25" spans="1:21">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="C116" s="12">
+        <v>68434</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -4526,12 +5370,20 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" spans="1:21">
-      <c r="A117" s="1"/>
+    <row r="117" ht="17.25" spans="1:21">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="C117" s="12">
+        <v>68436</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -4549,12 +5401,20 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" spans="1:21">
-      <c r="A118" s="1"/>
+    <row r="118" ht="17.25" spans="1:21">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="C118" s="12">
+        <v>68438</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -4572,12 +5432,20 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" spans="1:21">
-      <c r="A119" s="1"/>
+    <row r="119" ht="17.25" spans="1:21">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="C119" s="12">
+        <v>68440</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -4595,12 +5463,20 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" spans="1:21">
-      <c r="A120" s="1"/>
+    <row r="120" ht="17.25" spans="1:21">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="C120" s="12">
+        <v>68442</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -4618,12 +5494,20 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" spans="1:21">
-      <c r="A121" s="1"/>
+    <row r="121" ht="17.25" spans="1:21">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="C121" s="12">
+        <v>68447</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -4641,12 +5525,20 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" spans="1:21">
-      <c r="A122" s="1"/>
+    <row r="122" ht="17.25" spans="1:21">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="C122" s="12">
+        <v>68449</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -4664,12 +5556,20 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" spans="1:21">
-      <c r="A123" s="1"/>
+    <row r="123" ht="17.25" spans="1:21">
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="C123" s="12">
+        <v>68452</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -4687,12 +5587,20 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" spans="1:21">
-      <c r="A124" s="1"/>
+    <row r="124" ht="17.25" spans="1:21">
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="C124" s="12">
+        <v>68456</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -4710,12 +5618,20 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" spans="1:21">
-      <c r="A125" s="1"/>
+    <row r="125" ht="17.25" spans="1:21">
+      <c r="A125" s="1">
+        <v>121</v>
+      </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="C125" s="12">
+        <v>111667</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -4733,12 +5649,20 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" spans="1:21">
-      <c r="A126" s="1"/>
+    <row r="126" ht="17.25" spans="1:21">
+      <c r="A126" s="1">
+        <v>122</v>
+      </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="C126" s="12">
+        <v>111668</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -4756,12 +5680,20 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" spans="1:21">
-      <c r="A127" s="1"/>
+    <row r="127" ht="17.25" spans="1:21">
+      <c r="A127" s="1">
+        <v>123</v>
+      </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+      <c r="C127" s="12">
+        <v>111669</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -4779,12 +5711,20 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" spans="1:21">
-      <c r="A128" s="1"/>
+    <row r="128" ht="17.25" spans="1:21">
+      <c r="A128" s="1">
+        <v>124</v>
+      </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="C128" s="12">
+        <v>117848</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -4802,12 +5742,20 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" spans="1:21">
-      <c r="A129" s="1"/>
+    <row r="129" ht="17.25" spans="1:21">
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="C129" s="12">
+        <v>134224</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -4825,12 +5773,20 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" spans="1:21">
-      <c r="A130" s="1"/>
+    <row r="130" ht="17.25" spans="1:21">
+      <c r="A130" s="1">
+        <v>126</v>
+      </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
+      <c r="C130" s="12">
+        <v>174438</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -4848,12 +5804,20 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" spans="1:21">
-      <c r="A131" s="1"/>
+    <row r="131" ht="17.25" spans="1:21">
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="C131" s="12">
+        <v>182167</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -4871,12 +5835,20 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" spans="1:21">
-      <c r="A132" s="1"/>
+    <row r="132" ht="17.25" spans="1:21">
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="C132" s="12">
+        <v>186725</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -4894,12 +5866,20 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" spans="1:21">
-      <c r="A133" s="1"/>
+    <row r="133" ht="17.25" spans="1:21">
+      <c r="A133" s="1">
+        <v>129</v>
+      </c>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="C133" s="12">
+        <v>186901</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -4917,12 +5897,20 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" spans="1:21">
-      <c r="A134" s="1"/>
+    <row r="134" ht="17.25" spans="1:21">
+      <c r="A134" s="1">
+        <v>130</v>
+      </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="C134" s="12">
+        <v>191858</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -4940,12 +5928,20 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" spans="1:21">
-      <c r="A135" s="1"/>
+    <row r="135" ht="17.25" spans="1:21">
+      <c r="A135" s="1">
+        <v>131</v>
+      </c>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="C135" s="12">
+        <v>192738</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -4963,12 +5959,20 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:21">
-      <c r="A136" s="1"/>
+    <row r="136" ht="17.25" spans="1:21">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="C136" s="12">
+        <v>192739</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -4986,12 +5990,20 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" spans="1:21">
-      <c r="A137" s="1"/>
+    <row r="137" ht="17.25" spans="1:21">
+      <c r="A137" s="1">
+        <v>133</v>
+      </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="C137" s="12">
+        <v>192740</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -5009,12 +6021,20 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" spans="1:21">
-      <c r="A138" s="1"/>
+    <row r="138" ht="17.25" spans="1:21">
+      <c r="A138" s="1">
+        <v>134</v>
+      </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="C138" s="12">
+        <v>192741</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -5032,12 +6052,20 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" spans="1:21">
-      <c r="A139" s="1"/>
+    <row r="139" ht="17.25" spans="1:21">
+      <c r="A139" s="1">
+        <v>135</v>
+      </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="C139" s="12">
+        <v>202880</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -5055,12 +6083,20 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" spans="1:21">
-      <c r="A140" s="1"/>
+    <row r="140" ht="17.25" spans="1:21">
+      <c r="A140" s="1">
+        <v>136</v>
+      </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="C140" s="12">
+        <v>266537</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -5078,12 +6114,20 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" spans="1:21">
-      <c r="A141" s="1"/>
+    <row r="141" ht="17.25" spans="1:21">
+      <c r="A141" s="1">
+        <v>137</v>
+      </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="C141" s="12">
+        <v>286443</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="7">
+        <v>0</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -5101,12 +6145,20 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" spans="1:21">
-      <c r="A142" s="1"/>
+    <row r="142" ht="17.25" spans="1:21">
+      <c r="A142" s="1">
+        <v>138</v>
+      </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="C142" s="12">
+        <v>323565</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" s="7">
+        <v>0</v>
+      </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -5124,12 +6176,20 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" spans="1:21">
-      <c r="A143" s="1"/>
+    <row r="143" ht="17.25" spans="1:21">
+      <c r="A143" s="1">
+        <v>139</v>
+      </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="C143" s="12">
+        <v>351369</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0</v>
+      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -5147,12 +6207,20 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" spans="1:21">
-      <c r="A144" s="1"/>
+    <row r="144" ht="17.25" spans="1:21">
+      <c r="A144" s="1">
+        <v>140</v>
+      </c>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="C144" s="12">
+        <v>363651</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0</v>
+      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -5170,12 +6238,20 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" spans="1:21">
-      <c r="A145" s="1"/>
+    <row r="145" ht="17.25" spans="1:21">
+      <c r="A145" s="1">
+        <v>141</v>
+      </c>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="C145" s="12">
+        <v>374517</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -5193,12 +6269,20 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" spans="1:21">
-      <c r="A146" s="1"/>
+    <row r="146" ht="17.25" spans="1:21">
+      <c r="A146" s="1">
+        <v>142</v>
+      </c>
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="C146" s="12">
+        <v>384900</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0</v>
+      </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -5216,12 +6300,20 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" spans="1:21">
-      <c r="A147" s="1"/>
+    <row r="147" ht="17.25" spans="1:21">
+      <c r="A147" s="1">
+        <v>143</v>
+      </c>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="C147" s="12">
+        <v>390760</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0</v>
+      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -5239,12 +6331,20 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" spans="1:21">
-      <c r="A148" s="1"/>
+    <row r="148" ht="17.25" spans="1:21">
+      <c r="A148" s="1">
+        <v>144</v>
+      </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="C148" s="12">
+        <v>457460</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -5262,10 +6362,10 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" ht="17.25" spans="1:21">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -6527,6 +7627,351 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
     </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
